--- a/data/pca/factorExposure/factorExposure_2016-09-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008086709478077719</v>
+        <v>0.01348790463972187</v>
       </c>
       <c r="C2">
-        <v>0.0534422187909266</v>
+        <v>0.04302404783356042</v>
       </c>
       <c r="D2">
-        <v>-0.03424100674354016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06673606830613926</v>
+      </c>
+      <c r="E2">
+        <v>-0.05266434412187476</v>
+      </c>
+      <c r="F2">
+        <v>0.08466293377094114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05681239774115163</v>
+        <v>0.03230582684948438</v>
       </c>
       <c r="C3">
-        <v>0.1004371847381694</v>
+        <v>0.08051586651615293</v>
       </c>
       <c r="D3">
-        <v>-0.06452362334697651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09580611343071266</v>
+      </c>
+      <c r="E3">
+        <v>-0.06209963918001459</v>
+      </c>
+      <c r="F3">
+        <v>0.01528689472444701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06067562512498309</v>
+        <v>0.05737751077817001</v>
       </c>
       <c r="C4">
-        <v>0.05922800775559866</v>
+        <v>0.06560726713468594</v>
       </c>
       <c r="D4">
-        <v>-0.02673375658308506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06173637641239245</v>
+      </c>
+      <c r="E4">
+        <v>-0.05113204442024594</v>
+      </c>
+      <c r="F4">
+        <v>0.08617860524620412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03322850916881052</v>
+        <v>0.03362292777383812</v>
       </c>
       <c r="C6">
-        <v>0.03854770716937429</v>
+        <v>0.03557568777763061</v>
       </c>
       <c r="D6">
-        <v>-0.03128876693643931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06982295116328757</v>
+      </c>
+      <c r="E6">
+        <v>-0.05923681344772914</v>
+      </c>
+      <c r="F6">
+        <v>0.07061706748586051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01765984211490022</v>
+        <v>0.01919731701944638</v>
       </c>
       <c r="C7">
-        <v>0.03768406372787252</v>
+        <v>0.03684121377381567</v>
       </c>
       <c r="D7">
-        <v>0.002745593990495377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03945706442417682</v>
+      </c>
+      <c r="E7">
+        <v>-0.03254210753569503</v>
+      </c>
+      <c r="F7">
+        <v>0.1073845954311624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001905118445003671</v>
+        <v>0.003778791470146405</v>
       </c>
       <c r="C8">
-        <v>0.02215651505093726</v>
+        <v>0.02769989049978521</v>
       </c>
       <c r="D8">
-        <v>-0.03274846035810323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03700574517314437</v>
+      </c>
+      <c r="E8">
+        <v>-0.04181745636383086</v>
+      </c>
+      <c r="F8">
+        <v>0.05372786234604883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03080599485567318</v>
+        <v>0.03673171462778366</v>
       </c>
       <c r="C9">
-        <v>0.04181293407320024</v>
+        <v>0.05184688983008959</v>
       </c>
       <c r="D9">
-        <v>-0.01555147118064638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04726177929149672</v>
+      </c>
+      <c r="E9">
+        <v>-0.04470051398312676</v>
+      </c>
+      <c r="F9">
+        <v>0.0905516923422801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07477718641875659</v>
+        <v>0.1015062616572709</v>
       </c>
       <c r="C10">
-        <v>-0.1929606243346352</v>
+        <v>-0.191718263226671</v>
       </c>
       <c r="D10">
-        <v>-0.007154739557953545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0003129898625837989</v>
+      </c>
+      <c r="E10">
+        <v>-0.04615512117584208</v>
+      </c>
+      <c r="F10">
+        <v>0.03932192727511374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03609156183686716</v>
+        <v>0.03525882738610635</v>
       </c>
       <c r="C11">
-        <v>0.05484639513398903</v>
+        <v>0.05122985493464043</v>
       </c>
       <c r="D11">
-        <v>-0.006625073402309013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03483447695087685</v>
+      </c>
+      <c r="E11">
+        <v>-0.005510543846974018</v>
+      </c>
+      <c r="F11">
+        <v>0.06479280861173309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0334126818566932</v>
+        <v>0.03579381176362372</v>
       </c>
       <c r="C12">
-        <v>0.04718828457003306</v>
+        <v>0.04743031935611432</v>
       </c>
       <c r="D12">
-        <v>-0.002990072281375973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02638724160070131</v>
+      </c>
+      <c r="E12">
+        <v>-0.01470713611744511</v>
+      </c>
+      <c r="F12">
+        <v>0.06639954861436607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01266436598913726</v>
+        <v>0.01209305100852591</v>
       </c>
       <c r="C13">
-        <v>0.04074682149869083</v>
+        <v>0.04020392203299265</v>
       </c>
       <c r="D13">
-        <v>-0.02027956886289773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06595132868247879</v>
+      </c>
+      <c r="E13">
+        <v>-0.06334488036319633</v>
+      </c>
+      <c r="F13">
+        <v>0.1138637409019711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005781727133416127</v>
+        <v>0.005550005084884338</v>
       </c>
       <c r="C14">
-        <v>0.03163137730803282</v>
+        <v>0.02952512425287556</v>
       </c>
       <c r="D14">
-        <v>0.01475389964341533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03064705938795122</v>
+      </c>
+      <c r="E14">
+        <v>-0.02799530173594035</v>
+      </c>
+      <c r="F14">
+        <v>0.09800877969184824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001384984165792745</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002999853564296989</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00360153431646251</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002951811637255416</v>
+      </c>
+      <c r="F15">
+        <v>0.002652766712872346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03274125883283192</v>
+        <v>0.03285225430040743</v>
       </c>
       <c r="C16">
-        <v>0.04289235456137076</v>
+        <v>0.04551558531908016</v>
       </c>
       <c r="D16">
-        <v>-0.008242564564301953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03001930203097858</v>
+      </c>
+      <c r="E16">
+        <v>-0.02009859367138206</v>
+      </c>
+      <c r="F16">
+        <v>0.06880899115395153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02316841386293673</v>
+        <v>0.01627569866755966</v>
       </c>
       <c r="C19">
-        <v>0.05854928563479448</v>
+        <v>0.04983592094449976</v>
       </c>
       <c r="D19">
-        <v>-0.07434670953368924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1008878794992057</v>
+      </c>
+      <c r="E19">
+        <v>-0.07999245769597918</v>
+      </c>
+      <c r="F19">
+        <v>0.09239622261739221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01376328218113278</v>
+        <v>0.0135090262891478</v>
       </c>
       <c r="C20">
-        <v>0.04285248721677678</v>
+        <v>0.04034209892093747</v>
       </c>
       <c r="D20">
-        <v>-0.01972894523693277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0432324951440291</v>
+      </c>
+      <c r="E20">
+        <v>-0.05772319400202273</v>
+      </c>
+      <c r="F20">
+        <v>0.08854449735464982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008974727659413559</v>
+        <v>0.00826162079293296</v>
       </c>
       <c r="C21">
-        <v>0.0483597870295584</v>
+        <v>0.0449749298924001</v>
       </c>
       <c r="D21">
-        <v>-0.03613552453872951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07341909279098459</v>
+      </c>
+      <c r="E21">
+        <v>-0.07511895474264213</v>
+      </c>
+      <c r="F21">
+        <v>0.1343267719965075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.000626804420190303</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02280390429612794</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03475521877896252</v>
+      </c>
+      <c r="E22">
+        <v>-0.01760192257634549</v>
+      </c>
+      <c r="F22">
+        <v>0.0173427454089391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006943218753662688</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02293264239537512</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03445038491841754</v>
+      </c>
+      <c r="E23">
+        <v>-0.01789521169871179</v>
+      </c>
+      <c r="F23">
+        <v>0.01721845665682371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0272408988035767</v>
+        <v>0.03213155426323117</v>
       </c>
       <c r="C24">
-        <v>0.04799709332426689</v>
+        <v>0.05331787755189505</v>
       </c>
       <c r="D24">
-        <v>-0.004120907147770012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02805543807371698</v>
+      </c>
+      <c r="E24">
+        <v>-0.01776089895620291</v>
+      </c>
+      <c r="F24">
+        <v>0.07658473298550468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04147994699572366</v>
+        <v>0.04219197414605048</v>
       </c>
       <c r="C25">
-        <v>0.05974774922699749</v>
+        <v>0.05777897909709466</v>
       </c>
       <c r="D25">
-        <v>0.005452053921760607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02618860029124838</v>
+      </c>
+      <c r="E25">
+        <v>-0.01245967601431426</v>
+      </c>
+      <c r="F25">
+        <v>0.078668467607035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01217145824122052</v>
+        <v>0.01354212946197666</v>
       </c>
       <c r="C26">
-        <v>0.01682139961287996</v>
+        <v>0.0161613651485258</v>
       </c>
       <c r="D26">
-        <v>-0.0009729540016254311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02753982476677546</v>
+      </c>
+      <c r="E26">
+        <v>-0.02982527754371497</v>
+      </c>
+      <c r="F26">
+        <v>0.07401691958341643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08784338007117942</v>
+        <v>0.1362098373741585</v>
       </c>
       <c r="C28">
-        <v>-0.2255390900908788</v>
+        <v>-0.2416361966765479</v>
       </c>
       <c r="D28">
-        <v>-0.003541144962375138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01585258164029922</v>
+      </c>
+      <c r="E28">
+        <v>-0.04807007662047875</v>
+      </c>
+      <c r="F28">
+        <v>0.05220036952267889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008615739233553322</v>
+        <v>0.006488826645515477</v>
       </c>
       <c r="C29">
-        <v>0.02571325626772843</v>
+        <v>0.02557541674447861</v>
       </c>
       <c r="D29">
-        <v>0.01487934568904738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02491848005132996</v>
+      </c>
+      <c r="E29">
+        <v>-0.03036029242477093</v>
+      </c>
+      <c r="F29">
+        <v>0.09025191102102599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04847355926024895</v>
+        <v>0.04071056254787912</v>
       </c>
       <c r="C30">
-        <v>0.05778355385523448</v>
+        <v>0.06432630715270438</v>
       </c>
       <c r="D30">
-        <v>-0.04934782226820432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1091741080764883</v>
+      </c>
+      <c r="E30">
+        <v>-0.04100131069986971</v>
+      </c>
+      <c r="F30">
+        <v>0.1016254752359557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04818734008686322</v>
+        <v>0.05448954235594895</v>
       </c>
       <c r="C31">
-        <v>0.03282093580161809</v>
+        <v>0.05377173948287616</v>
       </c>
       <c r="D31">
-        <v>0.00853433990880403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006372694669392676</v>
+      </c>
+      <c r="E31">
+        <v>-0.04950350835307161</v>
+      </c>
+      <c r="F31">
+        <v>0.08041382897913524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.005807054336109754</v>
+        <v>0.004475278179739908</v>
       </c>
       <c r="C32">
-        <v>0.04652900734355608</v>
+        <v>0.0328511419697826</v>
       </c>
       <c r="D32">
-        <v>-0.02214032208738008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05119625388358015</v>
+      </c>
+      <c r="E32">
+        <v>-0.0235026701000332</v>
+      </c>
+      <c r="F32">
+        <v>0.07294941717757077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02709551945342225</v>
+        <v>0.02420835382277868</v>
       </c>
       <c r="C33">
-        <v>0.05820914276179691</v>
+        <v>0.05379104956139779</v>
       </c>
       <c r="D33">
-        <v>-0.03376183336294603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08435249871501502</v>
+      </c>
+      <c r="E33">
+        <v>-0.0513299147602133</v>
+      </c>
+      <c r="F33">
+        <v>0.1271917869323945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04326927237812453</v>
+        <v>0.04036766766293305</v>
       </c>
       <c r="C34">
-        <v>0.06025735082713745</v>
+        <v>0.06351069536403567</v>
       </c>
       <c r="D34">
-        <v>0.002287282585183342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03507692659474334</v>
+      </c>
+      <c r="E34">
+        <v>0.006257507448243525</v>
+      </c>
+      <c r="F34">
+        <v>0.07530875340205996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008636965690087426</v>
+        <v>0.01384921586590865</v>
       </c>
       <c r="C36">
-        <v>0.01363404367801319</v>
+        <v>0.01162085798133718</v>
       </c>
       <c r="D36">
-        <v>-0.001934125467414972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03020217895707408</v>
+      </c>
+      <c r="E36">
+        <v>-0.03643909741251606</v>
+      </c>
+      <c r="F36">
+        <v>0.08214643332374082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03125241948268766</v>
+        <v>0.02506575624031507</v>
       </c>
       <c r="C38">
-        <v>0.02947701669233636</v>
+        <v>0.02499307613833927</v>
       </c>
       <c r="D38">
-        <v>-0.002105062624036492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02843883268906421</v>
+      </c>
+      <c r="E38">
+        <v>-0.03540135420503725</v>
+      </c>
+      <c r="F38">
+        <v>0.0671071059821588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03893067844670432</v>
+        <v>0.03807788532908788</v>
       </c>
       <c r="C39">
-        <v>0.07056695719253486</v>
+        <v>0.06834802144718789</v>
       </c>
       <c r="D39">
-        <v>-0.02218124778008519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05375314798836581</v>
+      </c>
+      <c r="E39">
+        <v>-0.0188900294230486</v>
+      </c>
+      <c r="F39">
+        <v>0.09055503483547912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01655847886514693</v>
+        <v>0.01685877994665534</v>
       </c>
       <c r="C40">
-        <v>0.03111496958393971</v>
+        <v>0.03708818296183971</v>
       </c>
       <c r="D40">
-        <v>-0.03611356609411411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04369344935550944</v>
+      </c>
+      <c r="E40">
+        <v>-0.07441378564451294</v>
+      </c>
+      <c r="F40">
+        <v>0.0885293436533337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008959172181310449</v>
+        <v>0.01804197015500557</v>
       </c>
       <c r="C41">
-        <v>0.007266979703859072</v>
+        <v>0.005906181693323995</v>
       </c>
       <c r="D41">
-        <v>-0.001432707475723958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01918265291256235</v>
+      </c>
+      <c r="E41">
+        <v>-0.03861742279639273</v>
+      </c>
+      <c r="F41">
+        <v>0.07073095192757228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002559058402098304</v>
+        <v>0.00170602540374849</v>
       </c>
       <c r="C42">
-        <v>0.005218050045394052</v>
+        <v>0.002855345494867597</v>
       </c>
       <c r="D42">
-        <v>-0.008898387314184946</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001392250129380208</v>
+      </c>
+      <c r="E42">
+        <v>-0.008508080064889902</v>
+      </c>
+      <c r="F42">
+        <v>-0.00580994689816409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03142218231587503</v>
+        <v>0.02940571873550985</v>
       </c>
       <c r="C43">
-        <v>0.02277717360839548</v>
+        <v>0.02103738724945065</v>
       </c>
       <c r="D43">
-        <v>-0.01252951584771623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04319668759465334</v>
+      </c>
+      <c r="E43">
+        <v>-0.04421725052705224</v>
+      </c>
+      <c r="F43">
+        <v>0.08337482388570193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01535805548774417</v>
+        <v>0.01439507267645736</v>
       </c>
       <c r="C44">
-        <v>0.05670673078950605</v>
+        <v>0.0515958949503089</v>
       </c>
       <c r="D44">
-        <v>-0.01659634791849714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0419932590289359</v>
+      </c>
+      <c r="E44">
+        <v>-0.05834205867865733</v>
+      </c>
+      <c r="F44">
+        <v>0.09096026402291987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-7.463789782493509e-06</v>
+        <v>0.007478318557139869</v>
       </c>
       <c r="C46">
-        <v>0.02277224690683113</v>
+        <v>0.0250190029294731</v>
       </c>
       <c r="D46">
-        <v>0.01866407587333944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01488953090392868</v>
+      </c>
+      <c r="E46">
+        <v>-0.03608577461771995</v>
+      </c>
+      <c r="F46">
+        <v>0.1035065679338779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07959667245282037</v>
+        <v>0.08567389725789662</v>
       </c>
       <c r="C47">
-        <v>0.07173612480666577</v>
+        <v>0.08097259855301694</v>
       </c>
       <c r="D47">
-        <v>0.005648886530607367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01524396534306971</v>
+      </c>
+      <c r="E47">
+        <v>-0.05520373820516625</v>
+      </c>
+      <c r="F47">
+        <v>0.07686612729811478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01768516278835468</v>
+        <v>0.01573727333584719</v>
       </c>
       <c r="C48">
-        <v>0.01204669723701847</v>
+        <v>0.01723949096052435</v>
       </c>
       <c r="D48">
-        <v>0.005672454563455632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02020275494577252</v>
+      </c>
+      <c r="E48">
+        <v>-0.04674626746501215</v>
+      </c>
+      <c r="F48">
+        <v>0.09548910812297738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08696003683191823</v>
+        <v>0.07248713354912195</v>
       </c>
       <c r="C50">
-        <v>0.06886212886477636</v>
+        <v>0.07043508624477601</v>
       </c>
       <c r="D50">
-        <v>0.01508946043945146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002972006432775104</v>
+      </c>
+      <c r="E50">
+        <v>-0.05278388996686167</v>
+      </c>
+      <c r="F50">
+        <v>0.06721680011055171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01083441104441962</v>
+        <v>0.01044798322601266</v>
       </c>
       <c r="C51">
-        <v>0.04409069549921298</v>
+        <v>0.03317766179922847</v>
       </c>
       <c r="D51">
-        <v>-0.007876820634735791</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05068390602847429</v>
+      </c>
+      <c r="E51">
+        <v>-0.02201337732424216</v>
+      </c>
+      <c r="F51">
+        <v>0.08603422863583382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08150123894124099</v>
+        <v>0.091711220650779</v>
       </c>
       <c r="C53">
-        <v>0.07288128421607243</v>
+        <v>0.08842973220672386</v>
       </c>
       <c r="D53">
-        <v>0.0244011300451005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03714161515612793</v>
+      </c>
+      <c r="E53">
+        <v>-0.05440061203255845</v>
+      </c>
+      <c r="F53">
+        <v>0.08748799457363508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03056579643545033</v>
+        <v>0.02730267310205949</v>
       </c>
       <c r="C54">
-        <v>0.02170361514511863</v>
+        <v>0.02661743335242561</v>
       </c>
       <c r="D54">
-        <v>-0.002341560382475645</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03380958164671836</v>
+      </c>
+      <c r="E54">
+        <v>-0.0403653482737036</v>
+      </c>
+      <c r="F54">
+        <v>0.09338465694764267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07098082863251384</v>
+        <v>0.08272508783346445</v>
       </c>
       <c r="C55">
-        <v>0.06474553204429949</v>
+        <v>0.07190110940388698</v>
       </c>
       <c r="D55">
-        <v>0.02740009185029495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04463270951883237</v>
+      </c>
+      <c r="E55">
+        <v>-0.04456200259015055</v>
+      </c>
+      <c r="F55">
+        <v>0.06332125193127569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1475537579094861</v>
+        <v>0.1444221658947835</v>
       </c>
       <c r="C56">
-        <v>0.09230815425823231</v>
+        <v>0.1065851862203384</v>
       </c>
       <c r="D56">
-        <v>0.03062176315657887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04820793409156845</v>
+      </c>
+      <c r="E56">
+        <v>-0.04895328752214176</v>
+      </c>
+      <c r="F56">
+        <v>0.0494805419997375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.00155036420340445</v>
+        <v>0.0005169156713803775</v>
       </c>
       <c r="C57">
-        <v>0.003624421819223338</v>
+        <v>0.00208219602100667</v>
       </c>
       <c r="D57">
-        <v>-0.01795372216071415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01636943853083787</v>
+      </c>
+      <c r="E57">
+        <v>-0.007195035244790449</v>
+      </c>
+      <c r="F57">
+        <v>0.01098038719562777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07340380320025512</v>
+        <v>0.03050987488453403</v>
       </c>
       <c r="C58">
-        <v>0.02748490157924372</v>
+        <v>0.03945737256818552</v>
       </c>
       <c r="D58">
-        <v>-0.9403890896577721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4936173798597404</v>
+      </c>
+      <c r="E58">
+        <v>-0.6723594539066559</v>
+      </c>
+      <c r="F58">
+        <v>-0.4709758925291529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1369456023471811</v>
+        <v>0.1484893303103025</v>
       </c>
       <c r="C59">
-        <v>-0.2060982246625625</v>
+        <v>-0.1860175828964928</v>
       </c>
       <c r="D59">
-        <v>-0.01750086719706459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03116085752214833</v>
+      </c>
+      <c r="E59">
+        <v>-0.02525179558020911</v>
+      </c>
+      <c r="F59">
+        <v>0.02049934298594324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.312755495232956</v>
+        <v>0.2819597054574731</v>
       </c>
       <c r="C60">
-        <v>0.0942123829345245</v>
+        <v>0.09907051050505121</v>
       </c>
       <c r="D60">
-        <v>-0.0009373452366059319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2002314207484512</v>
+      </c>
+      <c r="E60">
+        <v>0.281006105467475</v>
+      </c>
+      <c r="F60">
+        <v>-0.1122915282576057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03651975236814058</v>
+        <v>0.03975956943607766</v>
       </c>
       <c r="C61">
-        <v>0.06430869433540862</v>
+        <v>0.06212952927398739</v>
       </c>
       <c r="D61">
-        <v>-0.01157851772062237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04806216618774602</v>
+      </c>
+      <c r="E61">
+        <v>-0.0228741520199424</v>
+      </c>
+      <c r="F61">
+        <v>0.08054284504179189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01404116139303077</v>
+        <v>0.0147603874258874</v>
       </c>
       <c r="C63">
-        <v>0.03590015417321645</v>
+        <v>0.03189116395716794</v>
       </c>
       <c r="D63">
-        <v>0.0002877491355098519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.024757792137833</v>
+      </c>
+      <c r="E63">
+        <v>-0.03906128392260751</v>
+      </c>
+      <c r="F63">
+        <v>0.07487874140851458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05211151989609212</v>
+        <v>0.05557283325576994</v>
       </c>
       <c r="C64">
-        <v>0.03507009839265875</v>
+        <v>0.05461939482697758</v>
       </c>
       <c r="D64">
-        <v>0.006733794020651329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008654250035970959</v>
+      </c>
+      <c r="E64">
+        <v>-0.02270473026242415</v>
+      </c>
+      <c r="F64">
+        <v>0.08896379437939915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09049862824658328</v>
+        <v>0.06680243522148861</v>
       </c>
       <c r="C65">
-        <v>0.04066183430550599</v>
+        <v>0.03871103104915293</v>
       </c>
       <c r="D65">
-        <v>-0.03865034592599716</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08691038939146944</v>
+      </c>
+      <c r="E65">
+        <v>-0.03192907613215196</v>
+      </c>
+      <c r="F65">
+        <v>0.02310331236509096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0593343008496786</v>
+        <v>0.05014567777344878</v>
       </c>
       <c r="C66">
-        <v>0.1046280624594786</v>
+        <v>0.09148429191937001</v>
       </c>
       <c r="D66">
-        <v>-0.03290267925817574</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08087019782007578</v>
+      </c>
+      <c r="E66">
+        <v>-0.02060413342331579</v>
+      </c>
+      <c r="F66">
+        <v>0.09169238127906076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05454662949581408</v>
+        <v>0.0476204008735323</v>
       </c>
       <c r="C67">
-        <v>0.03431851952035225</v>
+        <v>0.03078693134810622</v>
       </c>
       <c r="D67">
-        <v>0.003876123363358871</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01482316491329449</v>
+      </c>
+      <c r="E67">
+        <v>-0.01899040069536355</v>
+      </c>
+      <c r="F67">
+        <v>0.05314530217688457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1133887253235858</v>
+        <v>0.1535404086810523</v>
       </c>
       <c r="C68">
-        <v>-0.2884966023465472</v>
+        <v>-0.2501216569637351</v>
       </c>
       <c r="D68">
-        <v>0.001261236307528431</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01856559707614141</v>
+      </c>
+      <c r="E68">
+        <v>-0.04230502670218826</v>
+      </c>
+      <c r="F68">
+        <v>0.01750449967022857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08518112697657694</v>
+        <v>0.08685097634522046</v>
       </c>
       <c r="C69">
-        <v>0.06790587614403271</v>
+        <v>0.08674162066642706</v>
       </c>
       <c r="D69">
-        <v>0.03043159201179392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008750238115585141</v>
+      </c>
+      <c r="E69">
+        <v>-0.03257413425404376</v>
+      </c>
+      <c r="F69">
+        <v>0.09662082110467869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1193474146963868</v>
+        <v>0.1458538211183991</v>
       </c>
       <c r="C71">
-        <v>-0.2502257664682828</v>
+        <v>-0.2316116696589234</v>
       </c>
       <c r="D71">
-        <v>-0.02668309611234255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01530108697625507</v>
+      </c>
+      <c r="E71">
+        <v>-0.06029218515598307</v>
+      </c>
+      <c r="F71">
+        <v>0.05503924838915555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08516946421714036</v>
+        <v>0.09584685213956334</v>
       </c>
       <c r="C72">
-        <v>0.04941958901998364</v>
+        <v>0.05754721084239553</v>
       </c>
       <c r="D72">
-        <v>0.01070977189929244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02102169981614542</v>
+      </c>
+      <c r="E72">
+        <v>-0.01075144817661565</v>
+      </c>
+      <c r="F72">
+        <v>0.08187816373923233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4387219782153938</v>
+        <v>0.3459507954873359</v>
       </c>
       <c r="C73">
-        <v>0.06707668993376666</v>
+        <v>0.07987450244109391</v>
       </c>
       <c r="D73">
-        <v>-0.07340573839429797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4223784334933542</v>
+      </c>
+      <c r="E73">
+        <v>0.4952825467007913</v>
+      </c>
+      <c r="F73">
+        <v>-0.2911280475223305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1126624523398996</v>
+        <v>0.110097724375537</v>
       </c>
       <c r="C74">
-        <v>0.1104224414172887</v>
+        <v>0.1020644740744571</v>
       </c>
       <c r="D74">
-        <v>0.006050332421896838</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02758331849882699</v>
+      </c>
+      <c r="E74">
+        <v>-0.06392524850700917</v>
+      </c>
+      <c r="F74">
+        <v>0.0546242176102462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2482715741423605</v>
+        <v>0.2547505003956037</v>
       </c>
       <c r="C75">
-        <v>0.121351712628717</v>
+        <v>0.1408301208452007</v>
       </c>
       <c r="D75">
-        <v>0.04507249027880428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1281964838946541</v>
+      </c>
+      <c r="E75">
+        <v>-0.07579822359003127</v>
+      </c>
+      <c r="F75">
+        <v>0.01798034638731233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.111746508306217</v>
+        <v>0.1271528504800134</v>
       </c>
       <c r="C76">
-        <v>0.09987568356359662</v>
+        <v>0.1057175577398564</v>
       </c>
       <c r="D76">
-        <v>0.02830625329873934</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05777184287434047</v>
+      </c>
+      <c r="E76">
+        <v>-0.06892228505396567</v>
+      </c>
+      <c r="F76">
+        <v>0.06623755821954058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07740227003429262</v>
+        <v>0.06133983799263673</v>
       </c>
       <c r="C77">
-        <v>0.05890792131923134</v>
+        <v>0.06789607064052088</v>
       </c>
       <c r="D77">
-        <v>-0.05009312408874164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0655955384831137</v>
+      </c>
+      <c r="E77">
+        <v>-0.06628067168124556</v>
+      </c>
+      <c r="F77">
+        <v>0.10966169696245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04406113032436413</v>
+        <v>0.04320525078749603</v>
       </c>
       <c r="C78">
-        <v>0.04228202467447468</v>
+        <v>0.05400510407927525</v>
       </c>
       <c r="D78">
-        <v>-0.01718315945052187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07402607592009075</v>
+      </c>
+      <c r="E78">
+        <v>-0.0229595698378096</v>
+      </c>
+      <c r="F78">
+        <v>0.1047836692962744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02293464984869078</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03970275195268301</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05850797063302288</v>
+      </c>
+      <c r="E79">
+        <v>-0.05121072357345256</v>
+      </c>
+      <c r="F79">
+        <v>0.03416052884262605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04390102318583197</v>
+        <v>0.03331128875766902</v>
       </c>
       <c r="C80">
-        <v>0.05508437308735381</v>
+        <v>0.0542426576376226</v>
       </c>
       <c r="D80">
-        <v>-0.02604091369477752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04795662077852069</v>
+      </c>
+      <c r="E80">
+        <v>-0.0079365165576793</v>
+      </c>
+      <c r="F80">
+        <v>0.03131146152134868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.143113573610217</v>
+        <v>0.1393896051113174</v>
       </c>
       <c r="C81">
-        <v>0.07818286326515633</v>
+        <v>0.09892984022670626</v>
       </c>
       <c r="D81">
-        <v>0.02179574780129114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09398333846847008</v>
+      </c>
+      <c r="E81">
+        <v>-0.08297881750826384</v>
+      </c>
+      <c r="F81">
+        <v>0.01998041842930014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1255856614604378</v>
+        <v>0.1946897325656983</v>
       </c>
       <c r="C82">
-        <v>0.05705533691126605</v>
+        <v>0.1397901377016912</v>
       </c>
       <c r="D82">
-        <v>0.1131961482786163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.227373517505627</v>
+      </c>
+      <c r="E82">
+        <v>-0.01802256651200647</v>
+      </c>
+      <c r="F82">
+        <v>0.08465041013660256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03203793041821851</v>
+        <v>0.02666373751065063</v>
       </c>
       <c r="C83">
-        <v>0.01954300287248231</v>
+        <v>0.04044085187942803</v>
       </c>
       <c r="D83">
-        <v>-0.01679824850780711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0357950913888149</v>
+      </c>
+      <c r="E83">
+        <v>-0.008773406260129017</v>
+      </c>
+      <c r="F83">
+        <v>0.0472200535323894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2271255049522347</v>
+        <v>0.2036744966836896</v>
       </c>
       <c r="C85">
-        <v>0.110884072858256</v>
+        <v>0.1251590746984743</v>
       </c>
       <c r="D85">
-        <v>0.09080632820737845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1038320610087159</v>
+      </c>
+      <c r="E85">
+        <v>-0.006826991042987752</v>
+      </c>
+      <c r="F85">
+        <v>-0.01859420075306119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003308013255945747</v>
+        <v>0.01217825147514844</v>
       </c>
       <c r="C86">
-        <v>0.02411532971182374</v>
+        <v>0.03052359396188667</v>
       </c>
       <c r="D86">
-        <v>-0.02823248258543813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0735335568224226</v>
+      </c>
+      <c r="E86">
+        <v>-0.04474701602293238</v>
+      </c>
+      <c r="F86">
+        <v>0.1391260693162378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01751154924589269</v>
+        <v>0.01999731798409914</v>
       </c>
       <c r="C87">
-        <v>0.01753901510014644</v>
+        <v>0.02174669694832627</v>
       </c>
       <c r="D87">
-        <v>-0.09033646257726907</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09394283860415915</v>
+      </c>
+      <c r="E87">
+        <v>-0.08629290077769636</v>
+      </c>
+      <c r="F87">
+        <v>0.09182840839445632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1019139066144315</v>
+        <v>0.08982913654767094</v>
       </c>
       <c r="C88">
-        <v>0.07236952992837091</v>
+        <v>0.0641929797115495</v>
       </c>
       <c r="D88">
-        <v>0.01667944895033657</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01221754637320859</v>
+      </c>
+      <c r="E88">
+        <v>-0.03164585967117153</v>
+      </c>
+      <c r="F88">
+        <v>0.06757694496712439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1885049667362358</v>
+        <v>0.2286431519845158</v>
       </c>
       <c r="C89">
-        <v>-0.3726280480268289</v>
+        <v>-0.3786226154799655</v>
       </c>
       <c r="D89">
-        <v>0.02267131854630504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01270936172476998</v>
+      </c>
+      <c r="E89">
+        <v>-0.04200658980933855</v>
+      </c>
+      <c r="F89">
+        <v>0.1013576858144469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1765454530827176</v>
+        <v>0.2055194202761413</v>
       </c>
       <c r="C90">
-        <v>-0.3407012652938696</v>
+        <v>-0.3127665126034231</v>
       </c>
       <c r="D90">
-        <v>0.009972817410197499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01267653244524944</v>
+      </c>
+      <c r="E90">
+        <v>-0.06666298321963905</v>
+      </c>
+      <c r="F90">
+        <v>0.04807656882078976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1977976896745347</v>
+        <v>0.1880452138133669</v>
       </c>
       <c r="C91">
-        <v>0.1148084265347351</v>
+        <v>0.1416302255356564</v>
       </c>
       <c r="D91">
-        <v>0.04400280238204315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1013210299193355</v>
+      </c>
+      <c r="E91">
+        <v>-0.07222567904531206</v>
+      </c>
+      <c r="F91">
+        <v>0.04195273824228586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1719927289562187</v>
+        <v>0.1852327970651771</v>
       </c>
       <c r="C92">
-        <v>-0.2911606849528058</v>
+        <v>-0.2793296903925541</v>
       </c>
       <c r="D92">
-        <v>0.009826925401628966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003691121642056741</v>
+      </c>
+      <c r="E92">
+        <v>-0.07062401358530737</v>
+      </c>
+      <c r="F92">
+        <v>0.07039390621106333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2029791100303952</v>
+        <v>0.2291709158591405</v>
       </c>
       <c r="C93">
-        <v>-0.3376028777792083</v>
+        <v>-0.3178415968637583</v>
       </c>
       <c r="D93">
-        <v>-0.001126041051412626</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.000455344072376676</v>
+      </c>
+      <c r="E93">
+        <v>-0.05073995055513882</v>
+      </c>
+      <c r="F93">
+        <v>0.04251804947030254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3179143791330283</v>
+        <v>0.3396684307514327</v>
       </c>
       <c r="C94">
-        <v>0.1728416989670685</v>
+        <v>0.1932427713540205</v>
       </c>
       <c r="D94">
-        <v>0.1858763873534739</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4746536100729825</v>
+      </c>
+      <c r="E94">
+        <v>-0.1488160668473973</v>
+      </c>
+      <c r="F94">
+        <v>-0.4356596665537249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.08792839012376058</v>
+        <v>0.08223109925709209</v>
       </c>
       <c r="C95">
-        <v>0.06581616012121813</v>
+        <v>0.07011900287967991</v>
       </c>
       <c r="D95">
-        <v>-0.03647396242899006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1541623264799649</v>
+      </c>
+      <c r="E95">
+        <v>0.1307193960622295</v>
+      </c>
+      <c r="F95">
+        <v>0.1904237181652863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1963331670050445</v>
+        <v>0.1881811513837511</v>
       </c>
       <c r="C98">
-        <v>0.01475059146837643</v>
+        <v>0.04150382636991645</v>
       </c>
       <c r="D98">
-        <v>-0.04328048886569353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1734416597282448</v>
+      </c>
+      <c r="E98">
+        <v>0.1597942613164141</v>
+      </c>
+      <c r="F98">
+        <v>-0.04010559686891548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.00835170127933978</v>
+        <v>0.006373658889404605</v>
       </c>
       <c r="C101">
-        <v>0.02585283903702822</v>
+        <v>0.02532977434339284</v>
       </c>
       <c r="D101">
-        <v>0.01514511199175453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02425749597191077</v>
+      </c>
+      <c r="E101">
+        <v>-0.03084252701908093</v>
+      </c>
+      <c r="F101">
+        <v>0.08978622294146379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1214068227901317</v>
+        <v>0.1223815814325992</v>
       </c>
       <c r="C102">
-        <v>0.07400350078951709</v>
+        <v>0.1010961091606112</v>
       </c>
       <c r="D102">
-        <v>0.03132319021175962</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05097207854363115</v>
+      </c>
+      <c r="E102">
+        <v>0.007707428475683014</v>
+      </c>
+      <c r="F102">
+        <v>0.04021740935869333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
